--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Blocksize_test/Compare.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Blocksize_test/Compare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\测试数据\Blocksize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Blocksize_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF704C-7B7D-4B67-838D-6A81C1929663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2352E26F-1E6E-4A66-863E-26F58E0637C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Blocksize(KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,19 +56,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVG_700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_AVG_300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T_AVG_500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_AVG_700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,9 +148,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12199008457276174"/>
-          <c:y val="0.11748155829200821"/>
-          <c:w val="0.8027271136562476"/>
-          <c:h val="0.70530335797351884"/>
+          <c:y val="3.6673427185238208E-2"/>
+          <c:w val="0.82967572989303107"/>
+          <c:h val="0.77348524616241165"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -196,68 +188,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Latency!$A$2:$A$21</c:f>
+              <c:f>Latency!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -265,69 +227,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Latency!$B$2:$B$21</c:f>
+              <c:f>Latency!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.1235999999999994E-2</c:v>
+                  <c:v>0.15489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12574099999999999</c:v>
+                  <c:v>0.29921500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18132000000000001</c:v>
+                  <c:v>0.43488999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.238538</c:v>
+                  <c:v>0.57716500000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.293902</c:v>
+                  <c:v>0.71967499999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35283100000000001</c:v>
+                  <c:v>0.86012000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41183500000000001</c:v>
+                  <c:v>1.0036750000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47139599999999998</c:v>
+                  <c:v>1.1426499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52984100000000001</c:v>
+                  <c:v>1.2825800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58348599999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.63969200000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.69676300000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75768599999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.81019099999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.86790500000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.92550600000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98636400000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0437920000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.098071</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1541589999999999</c:v>
+                  <c:v>1.425405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,68 +304,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Latency!$A$2:$A$21</c:f>
+              <c:f>Latency!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -441,69 +343,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Latency!$C$2:$C$21</c:f>
+              <c:f>Latency!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.0021000000000004E-2</c:v>
+                  <c:v>0.20339499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14121900000000001</c:v>
+                  <c:v>0.35025000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.202984</c:v>
+                  <c:v>0.49462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.261959</c:v>
+                  <c:v>0.63999499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32246399999999997</c:v>
+                  <c:v>0.77930500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37471700000000002</c:v>
+                  <c:v>0.93197000000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.434975</c:v>
+                  <c:v>1.0730900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49598799999999998</c:v>
+                  <c:v>1.218545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54833799999999999</c:v>
+                  <c:v>1.3615349999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61196799999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.68051600000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.73649799999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.77386200000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.837148</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.88818600000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.95738699999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0159670000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0801369999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.115308</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.18096</c:v>
+                  <c:v>1.5125949999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,68 +420,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Latency!$A$2:$A$21</c:f>
+              <c:f>Latency!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -617,69 +459,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Latency!$D$2:$D$21</c:f>
+              <c:f>Latency!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.10364</c:v>
+                  <c:v>0.50092000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19835800000000001</c:v>
+                  <c:v>0.72638999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.231989</c:v>
+                  <c:v>0.78935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.281582</c:v>
+                  <c:v>0.95362000000000013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35242299999999999</c:v>
+                  <c:v>1.1204350000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40976600000000002</c:v>
+                  <c:v>1.27695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.455791</c:v>
+                  <c:v>1.4238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50811099999999998</c:v>
+                  <c:v>1.573215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56157599999999996</c:v>
+                  <c:v>1.6942400000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63176600000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.67945299999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74546000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82175799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.865008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.91093900000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.97698200000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.038675</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0917749999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1672180000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.2084140000000001</c:v>
+                  <c:v>1.8646650000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,188 +500,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9356-4027-B4B8-C0CC3538652A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>700</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Latency!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Latency!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.122402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19045799999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23083400000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31690200000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35756100000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41436800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.48264499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52645399999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61800600000000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64763300000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.71870800000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76343499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.80977699999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.87021899999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93347100000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0180290000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.04853</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0983590000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1825129999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.227401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9356-4027-B4B8-C0CC3538652A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -994,7 +624,7 @@
         <c:axId val="444121631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1240,68 +870,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Throughput!$A$2:$A$21</c:f>
+              <c:f>Throughput!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1309,69 +909,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$B$2:$B$21</c:f>
+              <c:f>Throughput!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7173</c:v>
+                  <c:v>6604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8135</c:v>
+                  <c:v>6841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8465</c:v>
+                  <c:v>7061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8581</c:v>
+                  <c:v>7095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8706</c:v>
+                  <c:v>7112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8703</c:v>
+                  <c:v>7142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8700</c:v>
+                  <c:v>7140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8686</c:v>
+                  <c:v>7168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8695</c:v>
+                  <c:v>7184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8773</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8816</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8783</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8846</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8847</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8823</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8858</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8871</c:v>
+                  <c:v>7183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,68 +986,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Throughput!$A$2:$A$21</c:f>
+              <c:f>Throughput!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1485,69 +1025,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$C$2:$C$21</c:f>
+              <c:f>Throughput!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5676</c:v>
+                  <c:v>5029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7244</c:v>
+                  <c:v>5844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7562</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7814</c:v>
+                  <c:v>6398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7935</c:v>
+                  <c:v>6568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8195</c:v>
+                  <c:v>6591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8237</c:v>
+                  <c:v>6678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8256</c:v>
+                  <c:v>6721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8401</c:v>
+                  <c:v>6768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8364</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8274</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8340</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8561</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8645</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8555</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8566</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8531</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8721</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8670</c:v>
+                  <c:v>6769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,68 +1102,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Throughput!$A$2:$A$21</c:f>
+              <c:f>Throughput!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1661,69 +1141,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$D$2:$D$21</c:f>
+              <c:f>Throughput!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4930</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5157</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6616</c:v>
+                  <c:v>3890</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7269</c:v>
+                  <c:v>4294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7261</c:v>
+                  <c:v>4568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7494</c:v>
+                  <c:v>4810</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7861</c:v>
+                  <c:v>5033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8059</c:v>
+                  <c:v>5206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8203</c:v>
+                  <c:v>5439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8102</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8287</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8240</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8098</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8429</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8383</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8378</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8440</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8473</c:v>
+                  <c:v>5491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,188 +1182,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-34A4-4682-86A3-C36AAF46FD36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>700</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Throughput!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Throughput!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>4174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6649</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6459</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7156</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7423</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7778</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7454</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7904</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7834</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8046</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8218</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8235</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8226</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8045</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8389</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8225</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-34A4-4682-86A3-C36AAF46FD36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3344,15 +2612,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3384,16 +2652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3684,19 +2952,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3709,348 +2976,145 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.15489</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.20339499999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.50092000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.29921500000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35025000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.72638999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.43488999999999994</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49462</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.78935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.57716500000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.63999499999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.95362000000000013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.71967499999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.77930500000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1204350000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.86012000000000011</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.93197000000000008</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.27695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0036750000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0730900000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.1426499999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.218545</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.573215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.2825800000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.3615349999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.6942400000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7.1235999999999994E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.0021000000000004E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.10364</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.122402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.12574099999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.14121900000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.19835800000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.19045799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.18132000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.202984</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.231989</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.23083400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.238538</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.261959</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.281582</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.31690200000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.293902</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.32246399999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.35242299999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.35756100000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.35283100000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.37471700000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.40976600000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.41436800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.41183500000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.434975</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.455791</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.48264499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.47139599999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.49598799999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.50811099999999998</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.52645399999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.52984100000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.54833799999999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.56157599999999996</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.61800600000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2.5</v>
-      </c>
       <c r="B11" s="1">
-        <v>0.58348599999999995</v>
+        <v>1.425405</v>
       </c>
       <c r="C11" s="1">
-        <v>0.61196799999999996</v>
+        <v>1.5125949999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>0.63176600000000005</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.64763300000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.63969200000000004</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.68051600000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.67945299999999997</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.71870800000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.69676300000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.73649799999999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.74546000000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.76343499999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.75768599999999997</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.77386200000000005</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.82175799999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.80977699999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.81019099999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.837148</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.865008</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.87021899999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.86790500000000004</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.88818600000000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.91093900000000005</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.93347100000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.92550600000000005</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.95738699999999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.97698200000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0180290000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.98636400000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0159670000000001</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.038675</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.04853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.0437920000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.0801369999999999</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.0917749999999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.0983590000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.098071</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.115308</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.1672180000000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.1825129999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.1541589999999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.18096</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.2084140000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.227401</v>
+        <v>1.8646650000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4062,20 +3126,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75A1EE2-9FCC-4BF7-9BA8-210E234DB654}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4083,353 +3147,150 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7173</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5676</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4930</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4174</v>
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>6604</v>
+      </c>
+      <c r="C2">
+        <v>5029</v>
+      </c>
+      <c r="D2">
+        <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8135</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7244</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5157</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5371</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6841</v>
+      </c>
+      <c r="C3">
+        <v>5844</v>
+      </c>
+      <c r="D3">
+        <v>2818</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8465</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7562</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6616</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6649</v>
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>7061</v>
+      </c>
+      <c r="C4">
+        <v>6208</v>
+      </c>
+      <c r="D4">
+        <v>3890</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8581</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7814</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7269</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6459</v>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>7095</v>
+      </c>
+      <c r="C5">
+        <v>6398</v>
+      </c>
+      <c r="D5">
+        <v>4294</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8706</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7935</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7261</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7156</v>
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>7112</v>
+      </c>
+      <c r="C6">
+        <v>6568</v>
+      </c>
+      <c r="D6">
+        <v>4568</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8703</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8195</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7494</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7411</v>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>7142</v>
+      </c>
+      <c r="C7">
+        <v>6591</v>
+      </c>
+      <c r="D7">
+        <v>4810</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8700</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8237</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7861</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7423</v>
+        <v>3.5</v>
+      </c>
+      <c r="B8">
+        <v>7140</v>
+      </c>
+      <c r="C8">
+        <v>6678</v>
+      </c>
+      <c r="D8">
+        <v>5033</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8686</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8256</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8059</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7778</v>
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7168</v>
+      </c>
+      <c r="C9">
+        <v>6721</v>
+      </c>
+      <c r="D9">
+        <v>5206</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8695</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8401</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8203</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7454</v>
+        <v>4.5</v>
+      </c>
+      <c r="B10">
+        <v>7184</v>
+      </c>
+      <c r="C10">
+        <v>6768</v>
+      </c>
+      <c r="D10">
+        <v>5439</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8773</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8364</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8102</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8802</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8274</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8287</v>
-      </c>
-      <c r="E12" s="1">
-        <v>7834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8816</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8340</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8240</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8783</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8599</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8098</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8846</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8561</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8285</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8847</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8645</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8429</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8850</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8555</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8383</v>
-      </c>
-      <c r="E17" s="1">
-        <v>8045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8823</v>
-      </c>
-      <c r="C18" s="1">
-        <v>8566</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8378</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8828</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8531</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8440</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8858</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8721</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8333</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
-        <v>8871</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8670</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8473</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8342</v>
+      <c r="B11">
+        <v>7183</v>
+      </c>
+      <c r="C11">
+        <v>6769</v>
+      </c>
+      <c r="D11">
+        <v>5491</v>
       </c>
     </row>
   </sheetData>
